--- a/docs/StructureDefinition-ServiceRequest2LE.xlsx
+++ b/docs/StructureDefinition-ServiceRequest2LE.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$72</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2737" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="565">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T23:45:39-03:00</t>
+    <t>2023-01-18T13:51:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -486,19 +486,6 @@
   </si>
   <si>
     <t>Tiene alergia el paciente</t>
-  </si>
-  <si>
-    <t>ServiceRequest.extension:PatologiasGES</t>
-  </si>
-  <si>
-    <t>PatologiasGES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://minsal.cl/listaespera/StructureDefinition/ExtInteger}
-</t>
-  </si>
-  <si>
-    <t>ExtInteger</t>
   </si>
   <si>
     <t>ServiceRequest.extension:OrigenInterconsulta</t>
@@ -1658,10 +1645,6 @@
     <t>paciente</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/PacienteLE)
-</t>
-  </si>
-  <si>
     <t>ServiceRequest.supportingInfo:QuestionnaireResponse</t>
   </si>
   <si>
@@ -1678,7 +1661,7 @@
     <t>Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/CondicionLE)
+    <t xml:space="preserve">Reference(http://minsal.cl/listaespera/StructureDefinition/CondicionLE1)
 </t>
   </si>
   <si>
@@ -2109,7 +2092,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO73"/>
+  <dimension ref="A1:AO72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3717,7 +3700,7 @@
         <v>158</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3800,35 +3783,33 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C15" t="s" s="2">
         <v>160</v>
       </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I15" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="J15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
         <v>162</v>
@@ -3836,8 +3817,12 @@
       <c r="M15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="N15" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3885,7 +3870,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
@@ -3894,7 +3879,7 @@
         <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>137</v>
@@ -3906,7 +3891,7 @@
         <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3917,46 +3902,44 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>168</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J16" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K16" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
@@ -3992,19 +3975,19 @@
         <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>78</v>
+        <v>174</v>
       </c>
       <c r="AD16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
@@ -4016,32 +3999,34 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>78</v>
+        <v>176</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>78</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>78</v>
       </c>
@@ -4050,7 +4035,7 @@
         <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>172</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>87</v>
@@ -4062,16 +4047,16 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4109,19 +4094,19 @@
         <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -4136,37 +4121,37 @@
         <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AO17" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -4181,16 +4166,16 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4240,7 +4225,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -4255,31 +4240,29 @@
         <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AO18" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>183</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4288,10 +4271,10 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>78</v>
@@ -4300,16 +4283,16 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4359,7 +4342,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
@@ -4374,27 +4357,27 @@
         <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>183</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4417,16 +4400,16 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4476,7 +4459,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -4491,13 +4474,13 @@
         <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4508,14 +4491,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4534,17 +4517,15 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4593,7 +4574,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4608,13 +4589,13 @@
         <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4625,14 +4606,14 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
@@ -4651,13 +4632,13 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4708,7 +4689,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4723,13 +4704,13 @@
         <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4740,21 +4721,21 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>78</v>
@@ -4766,16 +4747,20 @@
         <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>78</v>
       </c>
@@ -4823,13 +4808,13 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>78</v>
@@ -4838,13 +4823,13 @@
         <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4855,46 +4840,44 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>218</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4918,13 +4901,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>226</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>227</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4942,10 +4925,10 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>86</v>
@@ -4957,27 +4940,27 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>78</v>
+        <v>232</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>78</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5003,13 +4986,13 @@
         <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5035,13 +5018,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -5059,7 +5042,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
@@ -5074,27 +5057,27 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>234</v>
+        <v>129</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>237</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5102,33 +5085,35 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -5152,37 +5137,37 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Z26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
@@ -5191,16 +5176,16 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>129</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>78</v>
@@ -5208,10 +5193,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5219,13 +5204,13 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>78</v>
@@ -5234,24 +5219,22 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>252</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q27" s="2"/>
+      <c r="Q27" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="R27" t="s" s="2">
         <v>78</v>
       </c>
@@ -5271,37 +5254,37 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="Y27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
@@ -5310,16 +5293,16 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>78</v>
+        <v>260</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5327,10 +5310,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5338,36 +5321,40 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I28" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>269</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q28" t="s" s="2">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>78</v>
@@ -5388,13 +5375,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>230</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>262</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>263</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5412,7 +5399,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5427,16 +5414,16 @@
         <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>265</v>
+        <v>78</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5444,14 +5431,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5464,76 +5451,72 @@
         <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="O29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5548,38 +5531,38 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>78</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>78</v>
+        <v>283</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>78</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5591,16 +5574,16 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5626,13 +5609,13 @@
         <v>78</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>78</v>
@@ -5650,53 +5633,53 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>78</v>
+        <v>292</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO30" t="s" s="2">
         <v>284</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5708,18 +5691,18 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5743,40 +5726,40 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>296</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>98</v>
@@ -5785,24 +5768,24 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>288</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5810,13 +5793,13 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>78</v>
@@ -5825,18 +5808,16 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>302</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5884,10 +5865,10 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>86</v>
@@ -5899,41 +5880,41 @@
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>304</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>78</v>
+        <v>307</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>78</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>78</v>
@@ -5942,13 +5923,13 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5999,10 +5980,10 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>86</v>
@@ -6014,31 +5995,31 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6057,13 +6038,13 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6114,7 +6095,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
@@ -6129,31 +6110,31 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>324</v>
+        <v>78</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6172,13 +6153,13 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6205,13 +6186,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>334</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6229,7 +6210,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
@@ -6244,41 +6225,41 @@
         <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>328</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>78</v>
+        <v>338</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>78</v>
@@ -6287,13 +6268,13 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6320,31 +6301,31 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6359,41 +6340,41 @@
         <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>343</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>345</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>78</v>
@@ -6402,15 +6383,17 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6459,7 +6442,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -6474,31 +6457,31 @@
         <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>350</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6517,16 +6500,16 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>353</v>
+        <v>244</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6552,13 +6535,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>78</v>
+        <v>363</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6576,7 +6559,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6591,38 +6574,38 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>361</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6634,16 +6617,16 @@
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>248</v>
+        <v>371</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6669,13 +6652,13 @@
         <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>368</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>78</v>
@@ -6693,13 +6676,13 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
@@ -6708,16 +6691,16 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>78</v>
@@ -6725,24 +6708,24 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>78</v>
@@ -6751,17 +6734,15 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>375</v>
+        <v>244</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>378</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6786,13 +6767,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>381</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>382</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6810,7 +6791,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6825,16 +6806,16 @@
         <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>78</v>
@@ -6842,10 +6823,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6853,28 +6834,28 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>248</v>
+        <v>385</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6901,13 +6882,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>386</v>
+        <v>78</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6925,19 +6906,19 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -6946,10 +6927,10 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>78</v>
@@ -6957,21 +6938,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6983,15 +6964,17 @@
         <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>389</v>
+        <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -7028,31 +7011,31 @@
         <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
@@ -7061,7 +7044,7 @@
         <v>78</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -7072,44 +7055,46 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>396</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>400</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -7133,31 +7118,29 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>78</v>
+        <v>401</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
@@ -7169,16 +7152,16 @@
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7189,10 +7172,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7200,35 +7183,31 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7252,11 +7231,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>405</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7274,28 +7255,28 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>407</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7306,21 +7287,21 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -7332,15 +7313,17 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>389</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -7377,31 +7360,31 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
@@ -7410,7 +7393,7 @@
         <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7421,44 +7404,46 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -7494,40 +7479,40 @@
         <v>78</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>78</v>
+        <v>413</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7538,10 +7523,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7549,13 +7534,13 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>78</v>
@@ -7564,20 +7549,18 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>100</v>
+        <v>385</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7625,7 +7608,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7643,10 +7626,10 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7657,10 +7640,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7668,13 +7651,13 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>78</v>
@@ -7683,18 +7666,18 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>389</v>
+        <v>106</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="O48" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7742,7 +7725,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7760,10 +7743,10 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7774,10 +7757,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7800,17 +7783,17 @@
         <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>106</v>
+        <v>385</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>78</v>
@@ -7859,7 +7842,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7877,10 +7860,10 @@
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>78</v>
@@ -7891,10 +7874,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7902,13 +7885,13 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>78</v>
@@ -7917,17 +7900,19 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>389</v>
+        <v>265</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7976,7 +7961,7 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7994,10 +7979,10 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>78</v>
@@ -8008,10 +7993,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8034,19 +8019,19 @@
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>269</v>
+        <v>385</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -8095,7 +8080,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -8113,10 +8098,10 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
@@ -8127,10 +8112,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8138,13 +8123,13 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>78</v>
@@ -8153,20 +8138,16 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>389</v>
+        <v>453</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>449</v>
+        <v>379</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8214,13 +8195,13 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
@@ -8232,13 +8213,13 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>454</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>455</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>78</v>
+        <v>368</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>78</v>
@@ -8257,28 +8238,28 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>457</v>
+        <v>385</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>458</v>
+        <v>387</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8329,19 +8310,19 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>456</v>
+        <v>388</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
@@ -8350,10 +8331,10 @@
         <v>78</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>459</v>
+        <v>389</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>78</v>
@@ -8361,21 +8342,21 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8387,15 +8368,17 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>389</v>
+        <v>131</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -8432,31 +8415,31 @@
         <v>78</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>78</v>
+        <v>393</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
@@ -8465,7 +8448,7 @@
         <v>78</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>78</v>
@@ -8476,42 +8459,42 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>131</v>
+        <v>385</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>396</v>
+        <v>460</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>168</v>
+        <v>461</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8549,31 +8532,31 @@
         <v>78</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>397</v>
+        <v>78</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>398</v>
+        <v>462</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
@@ -8582,7 +8565,7 @@
         <v>78</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>393</v>
+        <v>129</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>78</v>
@@ -8593,10 +8576,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8604,13 +8587,13 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>78</v>
@@ -8619,16 +8602,16 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>389</v>
+        <v>100</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8654,13 +8637,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>78</v>
+        <v>469</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>78</v>
+        <v>470</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8678,7 +8661,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8687,7 +8670,7 @@
         <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>467</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>98</v>
@@ -8710,10 +8693,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8736,16 +8719,16 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>100</v>
+        <v>169</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8771,13 +8754,13 @@
         <v>78</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>472</v>
+        <v>78</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>473</v>
+        <v>78</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>474</v>
+        <v>78</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>78</v>
@@ -8795,7 +8778,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8816,7 +8799,7 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>78</v>
@@ -8827,10 +8810,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8853,16 +8836,16 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>173</v>
+        <v>385</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8912,7 +8895,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8933,7 +8916,7 @@
         <v>78</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>78</v>
@@ -8944,10 +8927,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8958,10 +8941,10 @@
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>78</v>
@@ -8970,16 +8953,16 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>389</v>
+        <v>244</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9005,13 +8988,13 @@
         <v>78</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>78</v>
+        <v>486</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>78</v>
+        <v>487</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>78</v>
@@ -9029,13 +9012,13 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
@@ -9044,16 +9027,16 @@
         <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>78</v>
+        <v>488</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>78</v>
+        <v>489</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>129</v>
+        <v>490</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>78</v>
+        <v>491</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -9061,10 +9044,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9078,7 +9061,7 @@
         <v>77</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>78</v>
@@ -9087,16 +9070,16 @@
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>248</v>
+        <v>493</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9122,13 +9105,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>490</v>
+        <v>78</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>491</v>
+        <v>78</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -9146,7 +9129,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9161,16 +9144,16 @@
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>78</v>
@@ -9178,10 +9161,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9201,20 +9184,18 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9263,7 +9244,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9278,16 +9259,16 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>495</v>
+        <v>78</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>78</v>
@@ -9295,24 +9276,24 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>78</v>
+        <v>508</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>78</v>
@@ -9321,15 +9302,17 @@
         <v>78</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>507</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>511</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>512</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>78</v>
@@ -9366,19 +9349,19 @@
         <v>78</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>78</v>
+        <v>513</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9393,13 +9376,13 @@
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9410,21 +9393,23 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>507</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="D63" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>87</v>
@@ -9436,16 +9421,16 @@
         <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9483,19 +9468,19 @@
         <v>78</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>517</v>
+        <v>78</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9510,13 +9495,13 @@
         <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
@@ -9527,16 +9512,16 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C64" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="B64" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C64" t="s" s="2">
-        <v>522</v>
-      </c>
       <c r="D64" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9555,16 +9540,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9614,7 +9599,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9629,13 +9614,13 @@
         <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
@@ -9646,20 +9631,20 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>86</v>
@@ -9674,16 +9659,16 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9733,7 +9718,7 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9748,13 +9733,13 @@
         <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9765,20 +9750,20 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>86</v>
@@ -9793,16 +9778,16 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9852,7 +9837,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9867,13 +9852,13 @@
         <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>
@@ -9884,20 +9869,20 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>86</v>
@@ -9912,16 +9897,16 @@
         <v>78</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9971,7 +9956,7 @@
         <v>78</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9986,13 +9971,13 @@
         <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>78</v>
@@ -10003,44 +9988,42 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>511</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>534</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>512</v>
+        <v>78</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="I68" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J68" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="K68" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N68" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10090,7 +10073,7 @@
         <v>78</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>511</v>
+        <v>531</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -10105,13 +10088,13 @@
         <v>98</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>518</v>
+        <v>78</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>78</v>
@@ -10122,14 +10105,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>78</v>
+        <v>539</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -10148,18 +10131,20 @@
         <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>537</v>
+        <v>244</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>542</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>78</v>
       </c>
@@ -10183,13 +10168,13 @@
         <v>78</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>78</v>
+        <v>544</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>78</v>
+        <v>545</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>78</v>
@@ -10207,7 +10192,7 @@
         <v>78</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
@@ -10225,28 +10210,28 @@
         <v>78</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>78</v>
+        <v>547</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>544</v>
+        <v>78</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10262,23 +10247,19 @@
         <v>78</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>248</v>
+        <v>549</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>545</v>
+        <v>47</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>548</v>
-      </c>
+        <v>550</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>78</v>
       </c>
@@ -10302,13 +10283,13 @@
         <v>78</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>253</v>
+        <v>78</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>549</v>
+        <v>78</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>550</v>
+        <v>78</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>78</v>
@@ -10326,7 +10307,7 @@
         <v>78</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
@@ -10341,27 +10322,27 @@
         <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>78</v>
+        <v>551</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>541</v>
+        <v>293</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10372,7 +10353,7 @@
         <v>76</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>78</v>
@@ -10381,16 +10362,16 @@
         <v>78</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>554</v>
+        <v>385</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>47</v>
+        <v>555</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10441,13 +10422,13 @@
         <v>78</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>78</v>
@@ -10456,10 +10437,10 @@
         <v>98</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>556</v>
+        <v>78</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>557</v>
@@ -10468,15 +10449,15 @@
         <v>78</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>558</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10487,7 +10468,7 @@
         <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>78</v>
@@ -10496,10 +10477,10 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>389</v>
+        <v>559</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>560</v>
@@ -10507,7 +10488,9 @@
       <c r="M72" t="s" s="2">
         <v>561</v>
       </c>
-      <c r="N72" s="2"/>
+      <c r="N72" t="s" s="2">
+        <v>562</v>
+      </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>78</v>
@@ -10556,13 +10539,13 @@
         <v>78</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>78</v>
@@ -10571,140 +10554,23 @@
         <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>78</v>
+        <v>563</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>297</v>
+        <v>129</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" hidden="true">
-      <c r="A73" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="B73" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="C73" s="2"/>
-      <c r="D73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>564</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>566</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="O73" s="2"/>
-      <c r="P73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q73" s="2"/>
-      <c r="R73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF73" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>569</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO73" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO73">
+  <autoFilter ref="A1:AO72">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10714,7 +10580,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI71">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-ServiceRequest2LE.xlsx
+++ b/docs/StructureDefinition-ServiceRequest2LE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T13:51:24-03:00</t>
+    <t>2023-01-18T14:20:48-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
